--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -150,7 +150,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -30,10 +30,16 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
     <t xml:space="preserve">diliprathod32@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -147,19 +153,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.85" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="10.72" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.85" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="15.14" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="20.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -169,29 +175,35 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -30,16 +30,10 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
     <t xml:space="preserve">diliprathod32@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -153,19 +147,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.85" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="10.72" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.85" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="15.14" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="20.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,35 +169,29 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -233,7 +221,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,7 +244,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -155,11 +161,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.85" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="10.72" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.85" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="15.14" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="20.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -177,6 +183,9 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -185,6 +194,9 @@
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -192,6 +204,9 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abc@123</t>
   </si>
   <si>
     <t>PASS</t>
@@ -153,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,7 +190,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,7 +201,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,10 +209,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -216,7 +222,7 @@
     <hyperlink ref="A3" r:id="rId3" display="diliprathod32@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4" display="Login@123"/>
     <hyperlink ref="A4" r:id="rId5" display="diliprathod32@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Login@123"/>
+    <hyperlink ref="B4" r:id="rId6" display="Abc@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -236,7 +242,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,7 +265,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -30,22 +30,25 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
     <t xml:space="preserve">diliprathod32@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
   </si>
   <si>
-    <t xml:space="preserve">PASS</t>
+    <t xml:space="preserve">FAIL</t>
   </si>
   <si>
     <t xml:space="preserve">Abc@123</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,35 +184,38 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -242,7 +248,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,7 +271,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -218,7 +218,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/build/resources/main/YatraLoginCreadentials.xlsx
+++ b/build/resources/main/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t xml:space="preserve">username</t>
   </si>
